--- a/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -158,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,10 +190,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +224,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,20 +399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -428,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>11.202400000000001</v>
       </c>
@@ -443,7 +441,7 @@
         <v>153.35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>12.202400000000001</v>
       </c>
@@ -458,7 +456,7 @@
         <v>134.79999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1.2024999999999999</v>
       </c>
@@ -473,7 +471,7 @@
         <v>117.24999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2.2025000000000001</v>
       </c>
@@ -488,19 +486,19 @@
         <v>96.449999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>3.2025000000000001</v>
       </c>
       <c r="B6" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3">
         <v>1.8</v>
       </c>
       <c r="D6" s="2">
         <f>(D5-B6-C6)</f>
-        <v>72.649999999999991</v>
+        <v>61.649999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -491,14 +491,14 @@
         <v>3.2025000000000001</v>
       </c>
       <c r="B6" s="3">
-        <v>33</v>
+        <v>40.5</v>
       </c>
       <c r="C6" s="3">
         <v>1.8</v>
       </c>
       <c r="D6" s="2">
         <f>(D5-B6-C6)</f>
-        <v>61.649999999999991</v>
+        <v>54.149999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -491,14 +491,14 @@
         <v>3.2025000000000001</v>
       </c>
       <c r="B6" s="3">
-        <v>40.5</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3">
         <v>1.8</v>
       </c>
       <c r="D6" s="2">
         <f>(D5-B6-C6)</f>
-        <v>54.149999999999991</v>
+        <v>50.649999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/Hours worked 15 Nov - 30 Sept 2025.xlsx
+++ b/Hours worked 15 Nov - 30 Sept 2025.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -19,20 +19,20 @@
     <t>Hours worked</t>
   </si>
   <si>
-    <t xml:space="preserve">Balance hours 157.5 hours </t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
-    <t>Urlaub</t>
+    <t>Balance hours 157.5  - 18.9 (Urlaub) = Net Hours excluding Urlaub 138.6</t>
+  </si>
+  <si>
+    <t>Total Hours Worked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,7 +55,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,29 +78,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -158,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,9 +182,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,34 +393,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>11.202400000000001</v>
       </c>
@@ -434,14 +427,11 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="1">
-        <f>(157.5-3.25-C2)</f>
-        <v>153.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <f>(138.6-B2)</f>
+        <v>135.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>12.202400000000001</v>
       </c>
@@ -449,14 +439,11 @@
         <v>16.75</v>
       </c>
       <c r="C3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D3" s="1">
-        <f>(D2-B3-C3)</f>
-        <v>134.79999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f>(C2-B3)</f>
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1.2024999999999999</v>
       </c>
@@ -464,41 +451,39 @@
         <v>15.75</v>
       </c>
       <c r="C4" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D4" s="1">
-        <f>(D3-B4-C4)</f>
-        <v>117.24999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <f t="shared" ref="C4:C6" si="0">(C3-B4)</f>
+        <v>102.85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2.2025000000000001</v>
       </c>
       <c r="B5" s="1">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="C5" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D5" s="2">
-        <f>(D4-B5-C5)</f>
-        <v>96.449999999999989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>83.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>3.2025000000000001</v>
       </c>
-      <c r="B6" s="3">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="D6" s="2">
-        <f>(D5-B6-C6)</f>
-        <v>50.649999999999991</v>
+      <c r="B6" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>31.849999999999994</v>
       </c>
     </row>
   </sheetData>
